--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Hhip.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N2">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O2">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P2">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q2">
-        <v>0.001040711182222222</v>
+        <v>0.009455031949999998</v>
       </c>
       <c r="R2">
-        <v>0.00936640064</v>
+        <v>0.08509528755</v>
       </c>
       <c r="S2">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="T2">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>3.113523</v>
       </c>
       <c r="O3">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P3">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q3">
-        <v>0.026275366544</v>
+        <v>0.09117433185</v>
       </c>
       <c r="R3">
-        <v>0.236478298896</v>
+        <v>0.82056898665</v>
       </c>
       <c r="S3">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="T3">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N4">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O4">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P4">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q4">
-        <v>0.01281213190222222</v>
+        <v>0.02759008315</v>
       </c>
       <c r="R4">
-        <v>0.11530918712</v>
+        <v>0.24831074835</v>
       </c>
       <c r="S4">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="T4">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
     </row>
   </sheetData>
